--- a/ArtTel/WebContent/data/reportTemplate/InstallationsTemplate.xlsx
+++ b/ArtTel/WebContent/data/reportTemplate/InstallationsTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -115,26 +115,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -149,6 +133,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -323,146 +350,134 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -751,827 +766,830 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="P32" sqref="P32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" customWidth="1"/>
-    <col min="3" max="3" width="5.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="5.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="36.5703125" style="29" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="3" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="3" customWidth="1"/>
-    <col min="14" max="15" width="11.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="36.85546875" style="29" customWidth="1"/>
-    <col min="17" max="17" width="8.42578125" style="3" customWidth="1"/>
-    <col min="18" max="18" width="9.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="5.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="36.5703125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="11.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="36.85546875" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.75">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24" t="s">
+    <row r="1" spans="1:18" ht="21">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="25"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-    </row>
-    <row r="2" spans="1:18" ht="19.5" thickBot="1">
-      <c r="A2" s="22"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+    </row>
+    <row r="2" spans="1:18" ht="21.75" thickBot="1">
+      <c r="A2" s="5"/>
       <c r="B2" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="24"/>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="24"/>
-      <c r="R2" s="24"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1">
-      <c r="A3" s="13"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="32" t="s">
+      <c r="O2" s="22"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" ht="21.75" thickBot="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="38" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="39"/>
-      <c r="J3" s="35" t="s">
+      <c r="I3" s="43"/>
+      <c r="J3" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="37"/>
-    </row>
-    <row r="4" spans="1:18" ht="45.75" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="41"/>
+    </row>
+    <row r="4" spans="1:18" ht="53.25" customHeight="1">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="26" t="s">
+      <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="P4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="2" t="s">
+      <c r="Q4" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="27" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A5" s="8">
+      <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="10"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="13"/>
     </row>
     <row r="6" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A6" s="8">
+      <c r="A6" s="10">
         <v>2</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="50"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="10"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A7" s="8">
+      <c r="A7" s="10">
         <v>3</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="50"/>
-      <c r="O7" s="50"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="10"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A8" s="8">
+      <c r="A8" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="43"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="43"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="10"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A9" s="8">
+      <c r="A9" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="43"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="10"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A10" s="8">
+      <c r="A10" s="10">
         <v>6</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="50"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="10"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A11" s="8">
+      <c r="A11" s="10">
         <v>7</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="10"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A12" s="8">
+      <c r="A12" s="10">
         <v>8</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="43"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="43"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="10"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A13" s="8">
+      <c r="A13" s="10">
         <v>9</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="50"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="10"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="20"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A14" s="8">
+      <c r="A14" s="10">
         <v>10</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="10"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A15" s="8">
+      <c r="A15" s="10">
         <v>11</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="10"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A16" s="8">
+      <c r="A16" s="10">
         <v>12</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="10"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A17" s="8">
+      <c r="A17" s="10">
         <v>13</v>
       </c>
-      <c r="B17" s="21"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="10"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="20"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A18" s="8">
+      <c r="A18" s="10">
         <v>14</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="10"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="13"/>
     </row>
     <row r="19" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A19" s="8">
+      <c r="A19" s="10">
         <v>15</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="28"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="10"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="20"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="13"/>
     </row>
     <row r="20" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A20" s="8">
+      <c r="A20" s="10">
         <v>16</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="50"/>
-      <c r="O20" s="50"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="10"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="20"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="13"/>
     </row>
     <row r="21" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A21" s="8">
+      <c r="A21" s="10">
         <v>17</v>
       </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="10"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="13"/>
     </row>
     <row r="22" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A22" s="8">
+      <c r="A22" s="10">
         <v>18</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="10"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="13"/>
     </row>
     <row r="23" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A23" s="8">
+      <c r="A23" s="10">
         <v>19</v>
       </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="50"/>
-      <c r="O23" s="50"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="10"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="13"/>
     </row>
     <row r="24" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A24" s="8">
+      <c r="A24" s="10">
         <v>20</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="43"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="50"/>
-      <c r="O24" s="50"/>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="10"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="13"/>
     </row>
     <row r="25" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A25" s="8">
+      <c r="A25" s="10">
         <v>21</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="50"/>
-      <c r="O25" s="50"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="10"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="13"/>
     </row>
     <row r="26" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A26" s="8">
+      <c r="A26" s="10">
         <v>22</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="10"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="13"/>
     </row>
     <row r="27" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A27" s="8">
+      <c r="A27" s="10">
         <v>23</v>
       </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="10"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="13"/>
     </row>
     <row r="28" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A28" s="8">
+      <c r="A28" s="10">
         <v>24</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="27"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="10"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="13"/>
     </row>
     <row r="29" spans="1:18" ht="26.1" customHeight="1">
-      <c r="A29" s="8">
+      <c r="A29" s="10">
         <v>25</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="43"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="50"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="10"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="13"/>
     </row>
     <row r="31" spans="1:18" ht="24.95" customHeight="1">
-      <c r="C31" s="4">
+      <c r="C31" s="45">
         <f t="shared" ref="C31:J31" si="0">SUM(C5:C29)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I31" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="49">
-        <f>SUM(J5:J29)</f>
+      <c r="J31" s="46">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N31" s="46">
         <f>SUM(N5:N29)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="7">
+      <c r="O31" s="46">
         <f>SUM(O5:O29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="24.95" customHeight="1">
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="7">
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="46">
         <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="2:16">
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
     </row>
     <row r="34" spans="2:16" ht="54" customHeight="1"/>
     <row r="35" spans="2:16" ht="18.75">
-      <c r="J35" s="24"/>
-      <c r="K35" s="30" t="s">
+      <c r="J35" s="7"/>
+      <c r="K35" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="30" t="s">
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="8" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="15.75">
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="31" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="31" t="s">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15.75">
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="31" t="s">
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
-      <c r="P40" s="31" t="s">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="5"/>
+      <c r="P40" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1583,6 +1601,6 @@
     <mergeCell ref="C32:F32"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.27559055118110237" top="0.47244094488188981" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="256" scale="53" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="52" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ArtTel/WebContent/data/reportTemplate/InstallationsTemplate.xlsx
+++ b/ArtTel/WebContent/data/reportTemplate/InstallationsTemplate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10260"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="10260"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,9 +39,6 @@
     <t>adres MAC modemu</t>
   </si>
   <si>
-    <t>Downstream -6/+10 dBm</t>
-  </si>
-  <si>
     <t>modem NET / terminal TEL</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Łączna ilość RGU</t>
   </si>
   <si>
-    <t>DS -6/+10 dBm</t>
-  </si>
-  <si>
     <t>uruchomienie instalacji przyłącza ab.</t>
   </si>
   <si>
@@ -102,13 +96,21 @@
     <t>Przedstawiciel służb ewidencji Spółki</t>
   </si>
   <si>
-    <t>Upstream 43/50 dBm</t>
-  </si>
-  <si>
-    <t>US 43/50 dBm</t>
-  </si>
-  <si>
     <t>Kierownik Techniczny - potwierdzam wykonanie i parametry techniczne</t>
+  </si>
+  <si>
+    <t>Upstream 40/51 dBm</t>
+  </si>
+  <si>
+    <t>US 40/51 dBm</t>
+  </si>
+  <si>
+    <t>Downstream 
+-9/+11 dBm</t>
+  </si>
+  <si>
+    <t>DS 
+-9/+11 dBm</t>
   </si>
 </sst>
 </file>
@@ -447,6 +449,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -472,12 +480,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,7 +754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -766,7 +768,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P32" sqref="P32"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -800,7 +802,7 @@
       <c r="H1" s="22"/>
       <c r="I1" s="22"/>
       <c r="J1" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K1" s="23"/>
       <c r="L1" s="7"/>
@@ -814,7 +816,7 @@
     <row r="2" spans="1:18" ht="21.75" thickBot="1">
       <c r="A2" s="5"/>
       <c r="B2" s="23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
@@ -822,7 +824,7 @@
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="21"/>
@@ -830,7 +832,7 @@
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
       <c r="N2" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" s="22"/>
       <c r="P2" s="23"/>
@@ -840,28 +842,28 @@
     <row r="3" spans="1:18" ht="21.75" thickBot="1">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="45"/>
+      <c r="J3" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="41"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="43"/>
     </row>
     <row r="4" spans="1:18" ht="53.25" customHeight="1">
       <c r="A4" s="24" t="s">
@@ -874,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>2</v>
@@ -883,40 +885,40 @@
         <v>3</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M4" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="32" t="s">
         <v>6</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>7</v>
       </c>
       <c r="P4" s="30" t="s">
         <v>5</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R4" s="27" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="26.1" customHeight="1">
@@ -1470,55 +1472,55 @@
       <c r="R29" s="13"/>
     </row>
     <row r="31" spans="1:18" ht="24.95" customHeight="1">
-      <c r="C31" s="45">
+      <c r="C31" s="36">
         <f t="shared" ref="C31:J31" si="0">SUM(C5:C29)</f>
         <v>0</v>
       </c>
-      <c r="D31" s="45">
+      <c r="D31" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="45">
+      <c r="E31" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="45">
+      <c r="F31" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="45">
+      <c r="G31" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="46">
+      <c r="H31" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I31" s="46">
+      <c r="I31" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="46">
+      <c r="J31" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="37">
         <f>SUM(N5:N29)</f>
         <v>0</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="37">
         <f>SUM(O5:O29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="24.95" customHeight="1">
-      <c r="C32" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="46">
+      <c r="C32" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="37">
         <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
@@ -1537,19 +1539,19 @@
     <row r="35" spans="2:16" ht="18.75">
       <c r="J35" s="7"/>
       <c r="K35" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L35" s="7"/>
       <c r="M35" s="7"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
       <c r="P35" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="2:16" ht="15.75">
       <c r="B39" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1560,19 +1562,19 @@
       <c r="I39" s="5"/>
       <c r="J39" s="5"/>
       <c r="K39" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="2:16" ht="15.75">
       <c r="B40" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1583,14 +1585,14 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
